--- a/anesthesiology_faculty.xlsx
+++ b/anesthesiology_faculty.xlsx
@@ -196,10 +196,10 @@
     <t>Paolo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Panzica</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elisabeth Abramowicz</t>
+    <t>Panzica</t>
+  </si>
+  <si>
+    <t>Elisabeth Abramowicz</t>
   </si>
   <si>
     <t>Smith</t>
@@ -214,13 +214,13 @@
     <t>Sekhri</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kelley</t>
+    <t>Kelley</t>
   </si>
   <si>
     <t>Muse</t>
   </si>
   <si>
-    <t xml:space="preserve"> Weber</t>
+    <t>Weber</t>
   </si>
   <si>
     <t>Rahimi</t>
@@ -235,7 +235,7 @@
     <t>Lederman</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mittnacht</t>
+    <t>Mittnacht</t>
   </si>
   <si>
     <t>Xu</t>
@@ -253,7 +253,7 @@
     <t>Pasamba-Rakhlin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ubranimath</t>
+    <t>Ubranimath</t>
   </si>
   <si>
     <t>Villion</t>
@@ -277,7 +277,7 @@
     <t>Cvetkovic</t>
   </si>
   <si>
-    <t xml:space="preserve"> Doherty</t>
+    <t>Doherty</t>
   </si>
   <si>
     <t>Dominik</t>
@@ -289,7 +289,7 @@
     <t>Dworet</t>
   </si>
   <si>
-    <t xml:space="preserve"> Feng</t>
+    <t>Feng</t>
   </si>
   <si>
     <t>Genis</t>
@@ -304,25 +304,25 @@
     <t>Knox</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kramer</t>
+    <t>Kramer</t>
   </si>
   <si>
     <t>Kubal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Leer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lyew</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mancuso</t>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>Lyew</t>
+  </si>
+  <si>
+    <t>Mancuso</t>
   </si>
   <si>
     <t>Marshall</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mehta</t>
+    <t>Mehta</t>
   </si>
   <si>
     <t>Meszaros</t>
@@ -340,10 +340,10 @@
     <t>Pesola</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rosenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sarier</t>
+    <t>Rosenberg</t>
+  </si>
+  <si>
+    <t>Sarier</t>
   </si>
   <si>
     <t>Shapiro</t>
@@ -355,7 +355,7 @@
     <t>Siddiqui</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sofjan</t>
+    <t>Sofjan</t>
   </si>
   <si>
     <t>Spivak</t>

--- a/anesthesiology_faculty.xlsx
+++ b/anesthesiology_faculty.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Westchester" sheetId="1" r:id="rId1"/>
+    <sheet name="UNM" sheetId="1" r:id="rId1"/>
+    <sheet name="Upstate" sheetId="2" r:id="rId2"/>
+    <sheet name="Westchester" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="289">
   <si>
     <t>First Name</t>
   </si>
@@ -28,6 +30,537 @@
     <t>Error</t>
   </si>
   <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Nichole</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Niels</t>
+  </si>
+  <si>
+    <t>Nivine</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Aliaksandr</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Codruta</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Bessie</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>Arpad</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>Sascha</t>
+  </si>
+  <si>
+    <t>Karin</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Hugh</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Kanwal</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Pramod</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Terra</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Reza</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Austine</t>
+  </si>
+  <si>
+    <t>Kylie</t>
+  </si>
+  <si>
+    <t>Davit</t>
+  </si>
+  <si>
+    <t>Janssen</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Arndt</t>
+  </si>
+  <si>
+    <t>Bordegaray</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Bui</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>Doran</t>
+  </si>
+  <si>
+    <t>Sandoval</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>Rothfork</t>
+  </si>
+  <si>
+    <t>Daroshka</t>
+  </si>
+  <si>
+    <t>Siegel</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Soneru</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Torgeson</t>
+  </si>
+  <si>
+    <t>Valeriano</t>
+  </si>
+  <si>
+    <t>Fortner</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Gerlach</t>
+  </si>
+  <si>
+    <t>Gerstein</t>
+  </si>
+  <si>
+    <t>Zolyomi</t>
+  </si>
+  <si>
+    <t>Dillow</t>
+  </si>
+  <si>
+    <t>Graustein</t>
+  </si>
+  <si>
+    <t>Grandhe</t>
+  </si>
+  <si>
+    <t>Alles</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Andritsos</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Koshkin</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Oetken</t>
+  </si>
+  <si>
+    <t>Panikkath</t>
+  </si>
+  <si>
+    <t>Poteet-Schwartz</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Wubbenhorst</t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t>McQuaid-Hanson</t>
+  </si>
+  <si>
+    <t>Ehsanian</t>
+  </si>
+  <si>
+    <t>Bryan de la Pena</t>
+  </si>
+  <si>
+    <t>Orser</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>Kocharyan</t>
+  </si>
+  <si>
+    <t>Puracan</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Fenghua</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Muhammad</t>
+  </si>
+  <si>
+    <t>Vandana</t>
+  </si>
+  <si>
+    <t>Xiuli</t>
+  </si>
+  <si>
+    <t>Jadwiga</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Ashoor</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Murui</t>
+  </si>
+  <si>
+    <t>Venkata</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Grigore</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Gorji</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Lavelle</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Resti</t>
+  </si>
+  <si>
+    <t>Romano</t>
+  </si>
+  <si>
+    <t>Sarwar</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Bednarczyk</t>
+  </si>
+  <si>
+    <t>Buckingham</t>
+  </si>
+  <si>
+    <t>Dabski</t>
+  </si>
+  <si>
+    <t>Gurges</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Howil</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Korets</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Mahajan</t>
+  </si>
+  <si>
+    <t>Oehler</t>
+  </si>
+  <si>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t>Sampathi</t>
+  </si>
+  <si>
+    <t>Samudre</t>
+  </si>
+  <si>
+    <t>Toma</t>
+  </si>
+  <si>
+    <t>Keenly</t>
+  </si>
+  <si>
+    <t>Tautiva</t>
+  </si>
+  <si>
+    <t>Desimone</t>
+  </si>
+  <si>
+    <t>gorjir@upstate.edu</t>
+  </si>
+  <si>
+    <t>lif@upstate.edu</t>
+  </si>
+  <si>
+    <t>alis@upstate.edu</t>
+  </si>
+  <si>
+    <t>demersle@upstate.edu</t>
+  </si>
+  <si>
+    <t>lopezc@upstate.edu</t>
+  </si>
+  <si>
+    <t>restij@upstate.edu</t>
+  </si>
+  <si>
+    <t>romanod@upstate.edu</t>
+  </si>
+  <si>
+    <t>sarwarm@upstate.edu</t>
+  </si>
+  <si>
+    <t>sharmav@upstate.edu</t>
+  </si>
+  <si>
+    <t>zhangx@upstate.edu</t>
+  </si>
+  <si>
+    <t>bednarcj@upstate.edu</t>
+  </si>
+  <si>
+    <t>buckingt@upstate.edu</t>
+  </si>
+  <si>
+    <t>dabskim@upstate.edu</t>
+  </si>
+  <si>
+    <t>gurgesj@upstate.edu</t>
+  </si>
+  <si>
+    <t>howardw@upstate.edu</t>
+  </si>
+  <si>
+    <t>howila@upstate.edu</t>
+  </si>
+  <si>
+    <t>kaler@upstate.edu</t>
+  </si>
+  <si>
+    <t>korets|@upstate.edu</t>
+  </si>
+  <si>
+    <t>map@upstate.edu</t>
+  </si>
+  <si>
+    <t>mahajana@upstate.edu</t>
+  </si>
+  <si>
+    <t>oehlerj@upstate.edu</t>
+  </si>
+  <si>
+    <t>renm@upstate.edu</t>
+  </si>
+  <si>
+    <t>sampathv@upstate.edu</t>
+  </si>
+  <si>
+    <t>samudres@upstate.edu</t>
+  </si>
+  <si>
+    <t>tomag@upstate.edu</t>
+  </si>
+  <si>
+    <t>keenlye@upstate.edu</t>
+  </si>
+  <si>
+    <t>tautivan@upstate.edu</t>
+  </si>
+  <si>
+    <t>desimone@upstate.edu</t>
+  </si>
+  <si>
     <t>Peter J.</t>
   </si>
   <si>
@@ -40,9 +573,6 @@
     <t>Irim</t>
   </si>
   <si>
-    <t>Richard</t>
-  </si>
-  <si>
     <t>Nitin</t>
   </si>
   <si>
@@ -55,15 +585,9 @@
     <t>Garret M.</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>Jason</t>
   </si>
   <si>
-    <t>Matthew</t>
-  </si>
-  <si>
     <t>Debra</t>
   </si>
   <si>
@@ -155,9 +679,6 @@
   </si>
   <si>
     <t>Bhupen J.</t>
-  </si>
-  <si>
-    <t>Austin</t>
   </si>
   <si>
     <t>Shinae</t>
@@ -719,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -752,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -760,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -768,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -776,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -784,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -792,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -800,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -808,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -816,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -824,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -832,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -840,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -848,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -856,7 +1377,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -864,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -872,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -880,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -888,7 +1409,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -896,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -904,7 +1425,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -912,7 +1433,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -920,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -928,7 +1449,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -936,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -944,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -952,7 +1473,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -960,7 +1481,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -968,7 +1489,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -976,7 +1497,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -984,7 +1505,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -992,7 +1513,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1000,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1008,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1016,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1024,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1032,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1040,7 +1561,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1048,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1056,135 +1577,897 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/anesthesiology_faculty.xlsx
+++ b/anesthesiology_faculty.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyad/Documents/GitHub/clinical-faculty-scraper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A92AA1-C39C-4245-A87E-34D92C0BB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNM" sheetId="1" r:id="rId1"/>
     <sheet name="Upstate" sheetId="2" r:id="rId2"/>
     <sheet name="Westchester" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -528,9 +534,6 @@
     <t>kaler@upstate.edu</t>
   </si>
   <si>
-    <t>korets|@upstate.edu</t>
-  </si>
-  <si>
     <t>map@upstate.edu</t>
   </si>
   <si>
@@ -883,13 +886,16 @@
   </si>
   <si>
     <t>Trubiano</t>
+  </si>
+  <si>
+    <t>koretsj@upstate.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,24 +947,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -996,7 +1011,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1030,6 +1045,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1064,9 +1080,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1239,14 +1256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1276,7 +1293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1364,7 +1381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +1405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1460,7 +1477,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1492,7 +1509,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1525,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1524,7 +1541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1532,7 +1549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1540,7 +1557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1548,7 +1565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +1573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1572,7 +1589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1580,7 +1597,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1605,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1596,7 +1613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1604,7 +1621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1620,7 +1637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +1645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1644,7 +1661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1652,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1666,14 +1683,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1698,7 +1717,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -1709,7 +1728,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1720,7 +1739,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1753,7 +1772,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1764,7 +1783,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1786,7 +1805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -1797,7 +1816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1808,7 +1827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1830,7 +1849,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -1863,7 +1882,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1874,18 +1893,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>142</v>
       </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1893,10 +1912,10 @@
         <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1904,10 +1923,10 @@
         <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -1915,10 +1934,10 @@
         <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -1926,10 +1945,10 @@
         <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -1937,10 +1956,10 @@
         <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -1948,10 +1967,10 @@
         <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -1959,10 +1978,10 @@
         <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -1970,10 +1989,10 @@
         <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -1981,10 +2000,10 @@
         <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2001,14 +2020,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,452 +2041,452 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>181</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>182</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>186</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>190</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>191</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>192</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>193</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>194</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>195</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>196</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>197</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>198</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>199</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>200</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>201</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>202</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>203</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>204</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>205</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>206</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>207</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>208</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>209</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>210</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>211</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>212</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>213</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>214</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>215</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>216</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>217</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>218</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>219</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>221</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>222</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>223</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>224</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>225</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>226</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>227</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>228</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>229</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>230</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>231</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
